--- a/aimms_model/energy_hub/results/TOU/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/TOU/results_costs.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
-  <si>
-    <t>Electric_boiler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Gas_CHP</t>
   </si>
@@ -386,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>67120.151889195142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9254.6937259931674</v>
+        <v>88143.333816788523</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7548.4034643030254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,14 +437,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -455,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.2287466476181499</v>
+        <v>12826.661026025011</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1768.5719710370529</v>
+        <v>9206.0815319759586</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>788.38880627164383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>29319.134086180209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,14 +498,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>168.52306879464007</v>
+        <v>20197.873257037721</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2748.8753267141637</v>
+        <v>29773.839895816691</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2284.657538880143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>71214.076980455284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,14 +559,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +566,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>171.75181544225822</v>
+        <v>100144.68617225788</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13772.141023744385</v>
+        <v>127123.25524458117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10621.449809454813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100533.2110666355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,14 +620,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21536.294567126857</v>
+        <v>169329.0430287901</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21536.294567126857</v>
+        <v>169329.0430287901</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -714,10 +679,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>464.41884268098158</v>
+        <v>3908.5031409431786</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -743,10 +708,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>464.41884268098158</v>
+        <v>3908.5031409431786</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>45651.636692740649</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/TOU/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/TOU/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>67120.151889195142</v>
+        <v>335600.75949048076</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>88143.333816788523</v>
+        <v>440716.66906116996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>12826.661026025011</v>
+        <v>64133.305138637515</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9206.0815319759586</v>
+        <v>46030.407657499331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29319.134086180209</v>
+        <v>146595.67043090062</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20197.873257037721</v>
+        <v>100989.3662998044</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29773.839895816691</v>
+        <v>148869.19947101676</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>71214.076980455284</v>
+        <v>356070.38490227639</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>100144.68617225788</v>
+        <v>500723.43092892267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>127123.25524458117</v>
+        <v>635616.27618968603</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100533.2110666355</v>
+        <v>502666.05533317698</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>169329.0430287901</v>
+        <v>846645.21523458231</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>169329.0430287901</v>
+        <v>846645.21523458231</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3908.5031409431786</v>
+        <v>19542.515706743172</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3908.5031409431786</v>
+        <v>19542.515706743172</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>45651.636692740649</v>
+        <v>228258.1834614643</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/TOU/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/TOU/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>335600.75949048076</v>
+        <v>359882.04385873681</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>440716.66906116996</v>
+        <v>427372.8159786397</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>64133.305138637515</v>
+        <v>68773.458581414568</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46030.407657499331</v>
+        <v>44636.716335547309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>146595.67043090062</v>
+        <v>144391.06343381322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>100989.3662998044</v>
+        <v>105702.2687199209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>148869.19947101676</v>
+        <v>135187.61071240329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>356070.38490227639</v>
+        <v>350715.55239116849</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>500723.43092892267</v>
+        <v>534357.7711600723</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>635616.27618968603</v>
+        <v>607197.14302659035</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>502666.05533317698</v>
+        <v>495106.61582498171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>846645.21523458231</v>
+        <v>834233.02533114818</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>846645.21523458231</v>
+        <v>834233.02533114818</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>19542.515706743172</v>
+        <v>27873.041618610332</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>19542.515706743172</v>
+        <v>27873.041618610332</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>228258.1834614643</v>
+        <v>227207.54822845259</v>
       </c>
     </row>
   </sheetData>
